--- a/excel_reports/Cory_Caldwell.xlsx
+++ b/excel_reports/Cory_Caldwell.xlsx
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>67</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>67</v>
@@ -21639,7 +21639,7 @@
         <v>67</v>
       </c>
       <c r="L531" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M531" t="s">
         <v>91</v>
@@ -21648,7 +21648,7 @@
         <v>61</v>
       </c>
       <c r="Q531" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S531" s="10" t="s">
         <v>323</v>
@@ -23704,7 +23704,7 @@
         <v>67</v>
       </c>
       <c r="L612" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M612" t="s">
         <v>153</v>
@@ -23713,7 +23713,7 @@
         <v>21</v>
       </c>
       <c r="Q612" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S612" s="10" t="s">
         <v>323</v>
